--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H2">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I2">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J2">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>179.3411446666667</v>
+        <v>1.764388666666667</v>
       </c>
       <c r="N2">
-        <v>538.0234340000001</v>
+        <v>5.293166</v>
       </c>
       <c r="O2">
-        <v>0.9868930934198245</v>
+        <v>0.2918165420774624</v>
       </c>
       <c r="P2">
-        <v>0.9868930934198243</v>
+        <v>0.2918165420774624</v>
       </c>
       <c r="Q2">
-        <v>259.2782154947429</v>
+        <v>1.750192983584222</v>
       </c>
       <c r="R2">
-        <v>2333.503939452686</v>
+        <v>15.751736852258</v>
       </c>
       <c r="S2">
-        <v>0.01524213868359999</v>
+        <v>0.002571364644137231</v>
       </c>
       <c r="T2">
-        <v>0.01524213868359999</v>
+        <v>0.002571364644137231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H3">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I3">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J3">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.537246</v>
       </c>
       <c r="O3">
-        <v>0.002819760933103243</v>
+        <v>0.08474962093431622</v>
       </c>
       <c r="P3">
-        <v>0.002819760933103243</v>
+        <v>0.08474962093431622</v>
       </c>
       <c r="Q3">
-        <v>0.7408123410037777</v>
+        <v>0.5082926103664445</v>
       </c>
       <c r="R3">
-        <v>6.667311069034001</v>
+        <v>4.574633493298</v>
       </c>
       <c r="S3">
-        <v>4.354999288527152E-05</v>
+        <v>0.0007467780178708511</v>
       </c>
       <c r="T3">
-        <v>4.354999288527152E-05</v>
+        <v>0.0007467780178708511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H4">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I4">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J4">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.869410666666667</v>
+        <v>3.769421666666666</v>
       </c>
       <c r="N4">
-        <v>5.608232</v>
+        <v>11.308265</v>
       </c>
       <c r="O4">
-        <v>0.01028714564707241</v>
+        <v>0.6234338369882213</v>
       </c>
       <c r="P4">
-        <v>0.01028714564707241</v>
+        <v>0.6234338369882212</v>
       </c>
       <c r="Q4">
-        <v>2.702656228614222</v>
+        <v>3.739094156410555</v>
       </c>
       <c r="R4">
-        <v>24.323906057528</v>
+        <v>33.65184740769499</v>
       </c>
       <c r="S4">
-        <v>0.0001588805329133737</v>
+        <v>0.005493436783870843</v>
       </c>
       <c r="T4">
-        <v>0.0001588805329133737</v>
+        <v>0.005493436783870842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>226.658417</v>
       </c>
       <c r="I5">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J5">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>179.3411446666667</v>
+        <v>1.764388666666667</v>
       </c>
       <c r="N5">
-        <v>538.0234340000001</v>
+        <v>5.293166</v>
       </c>
       <c r="O5">
-        <v>0.9868930934198245</v>
+        <v>0.2918165420774624</v>
       </c>
       <c r="P5">
-        <v>0.9868930934198243</v>
+        <v>0.2918165420774624</v>
       </c>
       <c r="Q5">
-        <v>13549.72665103822</v>
+        <v>133.3045140531358</v>
       </c>
       <c r="R5">
-        <v>121947.539859344</v>
+        <v>1199.740626478222</v>
       </c>
       <c r="S5">
-        <v>0.7965451796477014</v>
+        <v>0.1958495534807594</v>
       </c>
       <c r="T5">
-        <v>0.7965451796477013</v>
+        <v>0.1958495534807594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>226.658417</v>
       </c>
       <c r="I6">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J6">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.537246</v>
       </c>
       <c r="O6">
-        <v>0.002819760933103243</v>
+        <v>0.08474962093431622</v>
       </c>
       <c r="P6">
-        <v>0.002819760933103243</v>
+        <v>0.08474962093431622</v>
       </c>
       <c r="Q6">
         <v>38.71441609995355</v>
@@ -818,10 +818,10 @@
         <v>348.429744899582</v>
       </c>
       <c r="S6">
-        <v>0.002275896947701929</v>
+        <v>0.05687880234439717</v>
       </c>
       <c r="T6">
-        <v>0.002275896947701929</v>
+        <v>0.05687880234439717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>226.658417</v>
       </c>
       <c r="I7">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J7">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.869410666666667</v>
+        <v>3.769421666666666</v>
       </c>
       <c r="N7">
-        <v>5.608232</v>
+        <v>11.308265</v>
       </c>
       <c r="O7">
-        <v>0.01028714564707241</v>
+        <v>0.6234338369882213</v>
       </c>
       <c r="P7">
-        <v>0.01028714564707241</v>
+        <v>0.6234338369882212</v>
       </c>
       <c r="Q7">
-        <v>141.2392208098604</v>
+        <v>284.7903826573894</v>
       </c>
       <c r="R7">
-        <v>1271.152987288744</v>
+        <v>2563.113443916504</v>
       </c>
       <c r="S7">
-        <v>0.008303002961662797</v>
+        <v>0.4184109568625089</v>
       </c>
       <c r="T7">
-        <v>0.008303002961662795</v>
+        <v>0.4184109568625088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H8">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I8">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J8">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>179.3411446666667</v>
+        <v>1.764388666666667</v>
       </c>
       <c r="N8">
-        <v>538.0234340000001</v>
+        <v>5.293166</v>
       </c>
       <c r="O8">
-        <v>0.9868930934198245</v>
+        <v>0.2918165420774624</v>
       </c>
       <c r="P8">
-        <v>0.9868930934198243</v>
+        <v>0.2918165420774624</v>
       </c>
       <c r="Q8">
-        <v>2978.657643144661</v>
+        <v>63.56950038647556</v>
       </c>
       <c r="R8">
-        <v>26807.91878830195</v>
+        <v>572.1255034782801</v>
       </c>
       <c r="S8">
-        <v>0.1751057750885229</v>
+        <v>0.09339562395256584</v>
       </c>
       <c r="T8">
-        <v>0.1751057750885229</v>
+        <v>0.09339562395256584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H9">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I9">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J9">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.537246</v>
       </c>
       <c r="O9">
-        <v>0.002819760933103243</v>
+        <v>0.08474962093431622</v>
       </c>
       <c r="P9">
-        <v>0.002819760933103243</v>
+        <v>0.08474962093431622</v>
       </c>
       <c r="Q9">
-        <v>8.510650759672222</v>
+        <v>18.46191111163111</v>
       </c>
       <c r="R9">
-        <v>76.59585683704999</v>
+        <v>166.15720000468</v>
       </c>
       <c r="S9">
-        <v>0.0005003139925160424</v>
+        <v>0.02712404057204819</v>
       </c>
       <c r="T9">
-        <v>0.0005003139925160424</v>
+        <v>0.02712404057204819</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H10">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I10">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J10">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.869410666666667</v>
+        <v>3.769421666666666</v>
       </c>
       <c r="N10">
-        <v>5.608232</v>
+        <v>11.308265</v>
       </c>
       <c r="O10">
-        <v>0.01028714564707241</v>
+        <v>0.6234338369882213</v>
       </c>
       <c r="P10">
-        <v>0.01028714564707241</v>
+        <v>0.6234338369882212</v>
       </c>
       <c r="Q10">
-        <v>31.04883924317778</v>
+        <v>135.8092219831889</v>
       </c>
       <c r="R10">
-        <v>279.4395531886</v>
+        <v>1222.2829978487</v>
       </c>
       <c r="S10">
-        <v>0.001825262152496237</v>
+        <v>0.1995294433418415</v>
       </c>
       <c r="T10">
-        <v>0.001825262152496236</v>
+        <v>0.1995294433418415</v>
       </c>
     </row>
   </sheetData>
